--- a/AAII_Financials/Yearly/CTVZ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CTVZ_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>CTVZ</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -666,7 +666,7 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
@@ -698,8 +698,8 @@
       <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
-        <v>37437</v>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
@@ -1235,23 +1235,23 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1441,8 +1441,8 @@
       <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
-        <v>37437</v>
+      <c r="H38" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
@@ -1494,8 +1494,8 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>100</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1602,8 +1602,8 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1629,8 +1629,8 @@
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1656,8 +1656,8 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3">
-        <v>200</v>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1683,8 +1683,8 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3">
-        <v>100</v>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1845,8 +1845,8 @@
       <c r="G54" s="3">
         <v>0</v>
       </c>
-      <c r="H54" s="3">
-        <v>300</v>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1898,8 +1898,8 @@
       <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>500</v>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1925,8 +1925,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -1940,26 +1940,26 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1979,8 +1979,8 @@
       <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>800</v>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2141,8 +2141,8 @@
       <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
-        <v>800</v>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2289,8 +2289,8 @@
       <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3">
-        <v>-16400</v>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2397,8 +2397,8 @@
       <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>-500</v>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2456,8 +2456,8 @@
       <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
-        <v>37437</v>
+      <c r="H80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
